--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Artn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Artn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,13 +543,13 @@
         <v>1.415594</v>
       </c>
       <c r="H2">
-        <v>4.246782000000001</v>
+        <v>4.246782</v>
       </c>
       <c r="I2">
-        <v>0.9753967820130081</v>
+        <v>0.7538443241324221</v>
       </c>
       <c r="J2">
-        <v>0.9753967820130081</v>
+        <v>0.7538443241324221</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.509196</v>
+        <v>0.5471986666666667</v>
       </c>
       <c r="N2">
-        <v>1.527588</v>
+        <v>1.641596</v>
       </c>
       <c r="O2">
-        <v>0.02558190413389134</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="P2">
-        <v>0.02558190413389134</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="Q2">
-        <v>0.7208148024240001</v>
+        <v>0.7746111493413333</v>
       </c>
       <c r="R2">
-        <v>6.487333221816001</v>
+        <v>6.971500344072</v>
       </c>
       <c r="S2">
-        <v>0.02495250696996288</v>
+        <v>0.01978718979388622</v>
       </c>
       <c r="T2">
-        <v>0.02495250696996288</v>
+        <v>0.01978718979388622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,13 +605,13 @@
         <v>1.415594</v>
       </c>
       <c r="H3">
-        <v>4.246782000000001</v>
+        <v>4.246782</v>
       </c>
       <c r="I3">
-        <v>0.9753967820130081</v>
+        <v>0.7538443241324221</v>
       </c>
       <c r="J3">
-        <v>0.9753967820130081</v>
+        <v>0.7538443241324221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +626,22 @@
         <v>53.028774</v>
       </c>
       <c r="O3">
-        <v>0.8880516296316739</v>
+        <v>0.8479060840514853</v>
       </c>
       <c r="P3">
-        <v>0.8880516296316739</v>
+        <v>0.8479060840514852</v>
       </c>
       <c r="Q3">
-        <v>25.02240476725201</v>
+        <v>25.022404767252</v>
       </c>
       <c r="R3">
         <v>225.201642905268</v>
       </c>
       <c r="S3">
-        <v>0.8662027018041424</v>
+        <v>0.6391891888595606</v>
       </c>
       <c r="T3">
-        <v>0.8662027018041424</v>
+        <v>0.6391891888595604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,13 +667,13 @@
         <v>1.415594</v>
       </c>
       <c r="H4">
-        <v>4.246782000000001</v>
+        <v>4.246782</v>
       </c>
       <c r="I4">
-        <v>0.9753967820130081</v>
+        <v>0.7538443241324221</v>
       </c>
       <c r="J4">
-        <v>0.9753967820130081</v>
+        <v>0.7538443241324221</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,90 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.719084666666667</v>
+        <v>2.604410666666667</v>
       </c>
       <c r="N4">
-        <v>5.157254</v>
+        <v>7.813232000000001</v>
       </c>
       <c r="O4">
-        <v>0.0863664662344347</v>
+        <v>0.1249300417336775</v>
       </c>
       <c r="P4">
-        <v>0.0863664662344347</v>
+        <v>0.1249300417336775</v>
       </c>
       <c r="Q4">
-        <v>2.433525939625333</v>
+        <v>3.686788113269333</v>
       </c>
       <c r="R4">
-        <v>21.901733456628</v>
+        <v>33.181093019424</v>
       </c>
       <c r="S4">
-        <v>0.08424157323890272</v>
+        <v>0.09417780287455943</v>
       </c>
       <c r="T4">
-        <v>0.08424157323890272</v>
+        <v>0.09417780287455943</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.415594</v>
+      </c>
+      <c r="H5">
+        <v>4.246782</v>
+      </c>
+      <c r="I5">
+        <v>0.7538443241324221</v>
+      </c>
+      <c r="J5">
+        <v>0.7538443241324221</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.03570666666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.10712</v>
-      </c>
-      <c r="I5">
-        <v>0.02460321798699189</v>
-      </c>
-      <c r="J5">
-        <v>0.0246032179869919</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.509196</v>
+        <v>0.01908533333333333</v>
       </c>
       <c r="N5">
-        <v>1.527588</v>
+        <v>0.057256</v>
       </c>
       <c r="O5">
-        <v>0.02558190413389134</v>
+        <v>0.0009154975136414022</v>
       </c>
       <c r="P5">
-        <v>0.02558190413389134</v>
+        <v>0.0009154975136414022</v>
       </c>
       <c r="Q5">
-        <v>0.01818169184</v>
+        <v>0.02701708335466666</v>
       </c>
       <c r="R5">
-        <v>0.16363522656</v>
+        <v>0.243153750192</v>
       </c>
       <c r="S5">
-        <v>0.0006293971639284577</v>
+        <v>0.0006901426044159157</v>
       </c>
       <c r="T5">
-        <v>0.0006293971639284578</v>
+        <v>0.0006901426044159157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03570666666666667</v>
+        <v>0.2356576666666667</v>
       </c>
       <c r="H6">
-        <v>0.10712</v>
+        <v>0.706973</v>
       </c>
       <c r="I6">
-        <v>0.02460321798699189</v>
+        <v>0.1254944528268394</v>
       </c>
       <c r="J6">
-        <v>0.0246032179869919</v>
+        <v>0.1254944528268394</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>17.676258</v>
+        <v>0.5471986666666667</v>
       </c>
       <c r="N6">
-        <v>53.028774</v>
+        <v>1.641596</v>
       </c>
       <c r="O6">
-        <v>0.8880516296316739</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="P6">
-        <v>0.8880516296316739</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="Q6">
-        <v>0.6311602523200001</v>
+        <v>0.1289515609897778</v>
       </c>
       <c r="R6">
-        <v>5.68044227088</v>
+        <v>1.160564048908</v>
       </c>
       <c r="S6">
-        <v>0.02184892782753146</v>
+        <v>0.003294025671709338</v>
       </c>
       <c r="T6">
-        <v>0.02184892782753147</v>
+        <v>0.003294025671709338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03570666666666667</v>
+        <v>0.2356576666666667</v>
       </c>
       <c r="H7">
-        <v>0.10712</v>
+        <v>0.706973</v>
       </c>
       <c r="I7">
-        <v>0.02460321798699189</v>
+        <v>0.1254944528268394</v>
       </c>
       <c r="J7">
-        <v>0.0246032179869919</v>
+        <v>0.1254944528268394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +868,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.719084666666667</v>
+        <v>17.676258</v>
       </c>
       <c r="N7">
-        <v>5.157254</v>
+        <v>53.028774</v>
       </c>
       <c r="O7">
-        <v>0.0863664662344347</v>
+        <v>0.8479060840514853</v>
       </c>
       <c r="P7">
-        <v>0.0863664662344347</v>
+        <v>0.8479060840514852</v>
       </c>
       <c r="Q7">
-        <v>0.06138278316444445</v>
+        <v>4.165545715678</v>
       </c>
       <c r="R7">
-        <v>0.5524450484800001</v>
+        <v>37.489911441102</v>
       </c>
       <c r="S7">
-        <v>0.002124892995531972</v>
+        <v>0.1064075100665893</v>
       </c>
       <c r="T7">
-        <v>0.002124892995531972</v>
+        <v>0.1064075100665893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2356576666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.706973</v>
+      </c>
+      <c r="I8">
+        <v>0.1254944528268394</v>
+      </c>
+      <c r="J8">
+        <v>0.1254944528268394</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.604410666666667</v>
+      </c>
+      <c r="N8">
+        <v>7.813232000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="P8">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="Q8">
+        <v>0.6137493407484444</v>
+      </c>
+      <c r="R8">
+        <v>5.523744066736</v>
+      </c>
+      <c r="S8">
+        <v>0.01567802722900208</v>
+      </c>
+      <c r="T8">
+        <v>0.01567802722900208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2356576666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.706973</v>
+      </c>
+      <c r="I9">
+        <v>0.1254944528268394</v>
+      </c>
+      <c r="J9">
+        <v>0.1254944528268394</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01908533333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.057256</v>
+      </c>
+      <c r="O9">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="P9">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="Q9">
+        <v>0.004497605120888888</v>
+      </c>
+      <c r="R9">
+        <v>0.040478446088</v>
+      </c>
+      <c r="S9">
+        <v>0.0001148898595387598</v>
+      </c>
+      <c r="T9">
+        <v>0.0001148898595387598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2265816666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.679745</v>
+      </c>
+      <c r="I10">
+        <v>0.1206612230407385</v>
+      </c>
+      <c r="J10">
+        <v>0.1206612230407385</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.5471986666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.641596</v>
+      </c>
+      <c r="O10">
+        <v>0.02624837670119588</v>
+      </c>
+      <c r="P10">
+        <v>0.02624837670119588</v>
+      </c>
+      <c r="Q10">
+        <v>0.1239851858911111</v>
+      </c>
+      <c r="R10">
+        <v>1.11586667302</v>
+      </c>
+      <c r="S10">
+        <v>0.003167161235600319</v>
+      </c>
+      <c r="T10">
+        <v>0.003167161235600319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2265816666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.679745</v>
+      </c>
+      <c r="I11">
+        <v>0.1206612230407385</v>
+      </c>
+      <c r="J11">
+        <v>0.1206612230407385</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.676258</v>
+      </c>
+      <c r="N11">
+        <v>53.028774</v>
+      </c>
+      <c r="O11">
+        <v>0.8479060840514853</v>
+      </c>
+      <c r="P11">
+        <v>0.8479060840514852</v>
+      </c>
+      <c r="Q11">
+        <v>4.005115998070001</v>
+      </c>
+      <c r="R11">
+        <v>36.04604398263</v>
+      </c>
+      <c r="S11">
+        <v>0.1023093851253354</v>
+      </c>
+      <c r="T11">
+        <v>0.1023093851253354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2265816666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.679745</v>
+      </c>
+      <c r="I12">
+        <v>0.1206612230407385</v>
+      </c>
+      <c r="J12">
+        <v>0.1206612230407385</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.604410666666667</v>
+      </c>
+      <c r="N12">
+        <v>7.813232000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="P12">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="Q12">
+        <v>0.5901117095377779</v>
+      </c>
+      <c r="R12">
+        <v>5.311005385840001</v>
+      </c>
+      <c r="S12">
+        <v>0.01507421163011603</v>
+      </c>
+      <c r="T12">
+        <v>0.01507421163011603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2265816666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.679745</v>
+      </c>
+      <c r="I13">
+        <v>0.1206612230407385</v>
+      </c>
+      <c r="J13">
+        <v>0.1206612230407385</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01908533333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.057256</v>
+      </c>
+      <c r="O13">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="P13">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="Q13">
+        <v>0.004324386635555556</v>
+      </c>
+      <c r="R13">
+        <v>0.03891947972</v>
+      </c>
+      <c r="S13">
+        <v>0.0001104650496867267</v>
+      </c>
+      <c r="T13">
+        <v>0.0001104650496867267</v>
       </c>
     </row>
   </sheetData>
